--- a/biology/Zoologie/Afrotyphlops_mucruso/Afrotyphlops_mucruso.xlsx
+++ b/biology/Zoologie/Afrotyphlops_mucruso/Afrotyphlops_mucruso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Afrotyphlops mucruso est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afrotyphlops mucruso est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Ouganda, en Tanzanie, en République démocratique du Congo dans la province du Katanga, en Zambie, au Zimbabwe et au Mozambique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Ouganda, en Tanzanie, en République démocratique du Congo dans la province du Katanga, en Zambie, au Zimbabwe et au Mozambique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Peters, 1854 : Diagnosen neuer Batrachier, welche zusammen mit der früher (24. Juli und 17. August) gegebenen Übersicht der Schlangen und Eidechsen mitgetheilt werden. Bericht über die zur Bekanntmachung geeigneten Verhandlungen der Königlich preussischen Akademie der Wissenschaften zu Berlin, vol. 1854, p. 614-628 (texte intégral).</t>
         </is>
